--- a/BackTest/2020-01-11 BackTest BTG.xlsx
+++ b/BackTest/2020-01-11 BackTest BTG.xlsx
@@ -6261,143 +6261,131 @@
         <v>6432.25</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>6335</v>
       </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="C169" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6340</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6335</v>
+      </c>
+      <c r="F169" t="n">
+        <v>182.05577413</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6430.083333333333</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6325</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6325</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6325</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6325</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>6427.083333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K170" t="n">
+        <v>6340</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6335</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6340</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6335</v>
+      </c>
+      <c r="F171" t="n">
+        <v>122</v>
+      </c>
+      <c r="G171" t="n">
+        <v>6425</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6325</v>
+      </c>
+      <c r="K171" t="n">
+        <v>6340</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6335</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6340</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6340</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6335</v>
-      </c>
-      <c r="F169" t="n">
-        <v>182.05577413</v>
-      </c>
-      <c r="G169" t="n">
-        <v>6430.083333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6335</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6325</v>
-      </c>
-      <c r="C170" t="n">
-        <v>6325</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6325</v>
-      </c>
-      <c r="E170" t="n">
-        <v>6325</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4</v>
-      </c>
-      <c r="G170" t="n">
-        <v>6427.083333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>6325</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6335</v>
-      </c>
-      <c r="C171" t="n">
-        <v>6340</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6340</v>
-      </c>
-      <c r="E171" t="n">
-        <v>6335</v>
-      </c>
-      <c r="F171" t="n">
-        <v>122</v>
-      </c>
-      <c r="G171" t="n">
-        <v>6425</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>6335</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6433,7 +6421,9 @@
       <c r="J172" t="n">
         <v>6340</v>
       </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>6340</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,7 +6464,9 @@
       <c r="J173" t="n">
         <v>6340</v>
       </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>6340</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,7 +6507,9 @@
       <c r="J174" t="n">
         <v>6340</v>
       </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>6340</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,7 +6550,9 @@
       <c r="J175" t="n">
         <v>6340</v>
       </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>6340</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,7 +6593,9 @@
       <c r="J176" t="n">
         <v>6340</v>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>6340</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,15 +6628,15 @@
         <v>6416.416666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>6395</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>6340</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,15 +6669,15 @@
         <v>6415.666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>6390</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>6340</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,15 +6710,15 @@
         <v>6414.833333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>6375</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>6340</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6753,15 +6751,15 @@
         <v>6414.083333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>6380</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>6340</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,15 +6792,15 @@
         <v>6413.083333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>6380</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>6340</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,15 +6833,15 @@
         <v>6411.833333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>6380</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>6340</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6876,15 +6874,15 @@
         <v>6410.833333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>6380</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>6340</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6917,15 +6915,15 @@
         <v>6410.083333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>6375</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>6340</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6958,15 +6956,15 @@
         <v>6409.333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>6390</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>6340</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,15 +6997,15 @@
         <v>6408.416666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>6395</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>6340</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,15 +7038,15 @@
         <v>6407.25</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>6390</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>6340</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,15 +7079,15 @@
         <v>6406</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>6385</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>6340</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,15 +7120,15 @@
         <v>6404.25</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>6360</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>6340</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,15 +7161,15 @@
         <v>6402.833333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>6360</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>6340</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,15 +7202,15 @@
         <v>6401.416666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>6360</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>6340</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,15 +7243,15 @@
         <v>6400</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>6360</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>6340</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,15 +7284,15 @@
         <v>6399.75</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>6360</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>6340</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,15 +7325,15 @@
         <v>6400.083333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>6380</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>6340</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7368,15 +7366,15 @@
         <v>6399.583333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>6405</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>6340</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7409,15 +7407,15 @@
         <v>6399.5</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>6430</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>6340</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,15 +7448,15 @@
         <v>6399.5</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>6430</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>6340</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,15 +7489,15 @@
         <v>6399.416666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>6425</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>6340</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7532,15 +7530,15 @@
         <v>6399.416666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>6425</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>6340</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7573,15 +7571,15 @@
         <v>6399.416666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>6445</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>6340</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7620,7 +7618,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>6340</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,7 +7659,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>6340</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7698,7 +7700,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>6340</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,7 +7741,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>6340</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,7 +7782,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>6340</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,7 +7823,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>6340</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7854,7 +7864,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>6340</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>6340</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,7 +7946,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>6340</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,7 +7987,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>6340</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8010,7 +8028,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>6340</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8049,7 +8069,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>6340</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,7 +8110,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>6340</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,7 +8151,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>6340</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,7 +8192,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>6340</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,7 +8233,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>6340</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8244,7 +8274,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>6340</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,7 +8315,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>6340</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,7 +8356,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>6340</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,7 +8397,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>6340</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +8438,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>6340</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,7 +8479,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>6340</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,7 +8520,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>6340</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,7 +8561,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>6340</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,7 +8602,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>6340</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +8643,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>6340</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,7 +8684,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>6340</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,7 +8725,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>6340</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,7 +8766,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>6340</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8751,7 +8807,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>6340</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,7 +8848,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>6340</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,7 +8889,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>6340</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8868,7 +8930,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>6340</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8907,7 +8971,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>6340</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8946,7 +9012,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>6340</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8985,7 +9053,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>6340</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9024,7 +9094,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>6340</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,7 +9135,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>6340</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,7 +9176,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>6340</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,7 +9217,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>6340</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9180,7 +9258,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>6340</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9219,7 +9299,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>6340</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9258,7 +9340,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>6340</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9297,7 +9381,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>6340</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9336,7 +9422,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>6340</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9375,7 +9463,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>6340</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +9504,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>6340</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9453,7 +9545,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>6340</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,7 +9586,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>6340</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,7 +9627,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>6340</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,7 +9668,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>6340</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,7 +9709,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>6340</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,7 +9750,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>6340</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,7 +9791,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>6340</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,7 +9832,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>6340</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9765,7 +9873,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>6340</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,7 +9914,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>6340</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9843,7 +9955,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>6340</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9882,7 +9996,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>6340</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9921,7 +10037,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>6340</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>6340</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9999,7 +10119,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>6340</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,7 +10160,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>6340</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10077,7 +10201,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>6340</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10116,7 +10242,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>6340</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,7 +10283,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>6340</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10194,7 +10324,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>6340</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,7 +10365,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>6340</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,7 +10406,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>6340</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,7 +10447,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>6340</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,7 +10488,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>6340</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,7 +10529,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>6340</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,7 +10570,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>6340</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,7 +10611,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>6340</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,7 +10652,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>6340</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,7 +10693,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>6340</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,7 +10734,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>6340</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,7 +10775,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>6340</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,7 +10816,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>6340</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10701,7 +10857,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>6340</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,13 +10898,17 @@
         <v>1</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>6340</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1.04705047318612</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">

--- a/BackTest/2020-01-11 BackTest BTG.xlsx
+++ b/BackTest/2020-01-11 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>327.5656289900001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>331.5656289900001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>538.5819289900001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>527.59032899</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>480.59032899</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>480.59032899</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>730.71032899</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>104.2209289899999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>64.01872898999994</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>197.5863289899999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>197.5863289899999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-102.58947101</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-104.26387101</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-87.96387101000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-90.42527101000005</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-90.42527101000005</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-90.42527101000005</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-930.79007101</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-930.63747101</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-967.7559710100001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-920.38597101</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-920.5697710100001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-910.87977101</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-926.67977101</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-978.9797710099999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-978.9797710099999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-978.9797710099999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-839.1119710099999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-685.9809710099998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-29.95097100999985</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>76.85192899000013</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>46.85192899000013</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>144.5888289900001</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>118.2405289900001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>415.5706289900002</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>381.5706289900002</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>376.1829289900002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>376.1829289900002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-612.7533710099998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-612.5673710099998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-696.5101710099998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-603.1435121199997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-409.5635121199997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-388.3725121199997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-374.3650121199997</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-487.0750121199997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-487.0750121199997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-463.0750121199997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-463.0750121199997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-891.8827121199997</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-891.8827121199997</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-876.8827121199997</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-876.8827121199997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-887.4323121199998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-865.2421121199998</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-865.2421121199998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-865.2421121199998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-926.7216121199998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-972.0647121199999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-896.3734121199999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-862.7182121199999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-866.1700121199999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-866.1700121199999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-716.3658698499999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-716.7396698499998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-789.4681698499999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-784.4681698499999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-784.4681698499999</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-786.4681698499999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-786.4681698499999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-827.8014698499999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-827.8014698499999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1286.93066985</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1957.82696985</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1892.82696985</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1897.87756985</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2347.07116985</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2742.09936985</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3584.86016985</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3534.61016985</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -7909,10 +7909,14 @@
         <v>-5653.23194797</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>6320</v>
+      </c>
+      <c r="J228" t="n">
+        <v>6320</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7942,11 +7946,19 @@
         <v>-5657.23194797</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>6340</v>
+      </c>
+      <c r="J229" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7987,19 @@
         <v>-5535.23194797</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>6325</v>
+      </c>
+      <c r="J230" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,10 +8028,14 @@
         <v>-5535.23194797</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>6340</v>
+      </c>
+      <c r="J231" t="n">
+        <v>6340</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8041,7 +8065,7 @@
         <v>-5535.23194797</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>6340</v>
@@ -8049,7 +8073,11 @@
       <c r="J232" t="n">
         <v>6340</v>
       </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8106,7 @@
         <v>-5535.23194797</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>6340</v>
@@ -8119,7 +8147,7 @@
         <v>-5535.23194797</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>6340</v>
@@ -8127,11 +8155,7 @@
       <c r="J234" t="n">
         <v>6340</v>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8160,7 +8184,7 @@
         <v>-5182.6738221</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>6340</v>
@@ -8201,7 +8225,7 @@
         <v>-5252.093122099999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>6400</v>
@@ -8242,7 +8266,7 @@
         <v>-5307.682422099999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>6395</v>
@@ -8283,7 +8307,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>6385</v>
@@ -8324,7 +8348,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>6380</v>
@@ -8365,7 +8389,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>6380</v>
@@ -8406,7 +8430,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>6380</v>
@@ -8447,7 +8471,7 @@
         <v>-5321.760822099999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>6380</v>
@@ -8488,7 +8512,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>6375</v>
@@ -8529,7 +8553,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>6390</v>
@@ -8570,7 +8594,7 @@
         <v>-5261.760822099999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>6390</v>
@@ -8611,7 +8635,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>6395</v>
@@ -8652,7 +8676,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>6390</v>
@@ -8693,7 +8717,7 @@
         <v>-5340.760822099999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>6390</v>
@@ -8734,7 +8758,7 @@
         <v>-5340.760822099999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>6360</v>
@@ -8775,9 +8799,11 @@
         <v>-5340.760822099999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>6360</v>
+      </c>
       <c r="J250" t="n">
         <v>6340</v>
       </c>
@@ -8814,7 +8840,7 @@
         <v>-5340.760822099999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>6360</v>
@@ -8855,7 +8881,7 @@
         <v>-5149.295422099999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>6360</v>
@@ -8896,7 +8922,7 @@
         <v>-5144.569822099999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>6415</v>
@@ -8937,9 +8963,11 @@
         <v>-5163.523422099999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>6445</v>
+      </c>
       <c r="J254" t="n">
         <v>6340</v>
       </c>
@@ -8976,9 +9004,11 @@
         <v>-5114.323422099999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>6405</v>
+      </c>
       <c r="J255" t="n">
         <v>6340</v>
       </c>
@@ -12252,881 +12282,1037 @@
         <v>-2573.155188270001</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>6340</v>
       </c>
       <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="D340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="E340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-2573.566788270001</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6675</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6705</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6675</v>
+      </c>
+      <c r="F341" t="n">
+        <v>388.8121</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-2184.754688270001</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6705</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6720</v>
+      </c>
+      <c r="D342" t="n">
+        <v>6720</v>
+      </c>
+      <c r="E342" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-2183.442188270001</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>6710</v>
+      </c>
+      <c r="C343" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6710</v>
+      </c>
+      <c r="E343" t="n">
+        <v>6700</v>
+      </c>
+      <c r="F343" t="n">
+        <v>30.3334</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-2213.775588270001</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6725</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6735</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6735</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F344" t="n">
+        <v>16.5456</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-2197.229988270001</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="C345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="D345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-2197.345288270001</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="C346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="E346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-2197.245288270001</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="C347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="D347" t="n">
+        <v>6750</v>
+      </c>
+      <c r="E347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="F347" t="n">
+        <v>601.1391</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-2197.245288270001</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>6780</v>
+      </c>
+      <c r="C348" t="n">
+        <v>6785</v>
+      </c>
+      <c r="D348" t="n">
+        <v>6785</v>
+      </c>
+      <c r="E348" t="n">
+        <v>6780</v>
+      </c>
+      <c r="F348" t="n">
+        <v>7.2315</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-2190.013788270001</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>6785</v>
+      </c>
+      <c r="C349" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6790</v>
+      </c>
+      <c r="E349" t="n">
+        <v>6785</v>
+      </c>
+      <c r="F349" t="n">
+        <v>426.58471905</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-1763.429069220002</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>6795</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D350" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6790</v>
+      </c>
+      <c r="F350" t="n">
+        <v>131.90773456</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-1631.521334660002</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="F351" t="n">
+        <v>27.1764313</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-1631.521334660002</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6845</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6870</v>
+      </c>
+      <c r="E352" t="n">
+        <v>6805</v>
+      </c>
+      <c r="F352" t="n">
+        <v>287.7104</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-1343.810934660002</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>6800</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6775</v>
+      </c>
+      <c r="D353" t="n">
+        <v>6800</v>
+      </c>
+      <c r="E353" t="n">
+        <v>6775</v>
+      </c>
+      <c r="F353" t="n">
+        <v>5.2991</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-1349.110034660002</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>6815</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6825</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6825</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6815</v>
+      </c>
+      <c r="F354" t="n">
+        <v>3.2648</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-1345.845234660002</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E355" t="n">
+        <v>6825</v>
+      </c>
+      <c r="F355" t="n">
+        <v>199.878</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-1145.967234660002</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C356" t="n">
+        <v>6810</v>
+      </c>
+      <c r="D356" t="n">
+        <v>6860</v>
+      </c>
+      <c r="E356" t="n">
+        <v>6810</v>
+      </c>
+      <c r="F356" t="n">
+        <v>283.9853</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-1429.952534660002</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="C357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="E357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-1430.050734660002</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E358" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F358" t="n">
+        <v>74.0734653</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1355.977269360002</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="C359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F359" t="n">
+        <v>10.0424</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-1355.977269360002</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>6820</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D360" t="n">
+        <v>6820</v>
+      </c>
+      <c r="E360" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F360" t="n">
+        <v>9.5403</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-1355.977269360002</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D361" t="n">
+        <v>6825</v>
+      </c>
+      <c r="E361" t="n">
+        <v>6790</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.3987</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-1356.375969360002</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C362" t="n">
+        <v>6825</v>
+      </c>
+      <c r="D362" t="n">
+        <v>6825</v>
+      </c>
+      <c r="E362" t="n">
+        <v>6790</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-1356.051169360002</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6865</v>
+      </c>
+      <c r="D363" t="n">
+        <v>6865</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6825</v>
+      </c>
+      <c r="F363" t="n">
+        <v>214.9639</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-1141.087269360002</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C364" t="n">
+        <v>6825</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E364" t="n">
+        <v>6825</v>
+      </c>
+      <c r="F364" t="n">
+        <v>201.726</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-1342.813269360002</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>6845</v>
+      </c>
+      <c r="C365" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6845</v>
+      </c>
+      <c r="E365" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F365" t="n">
+        <v>20.4924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-1363.305669360002</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1.050205047318612</v>
-      </c>
-      <c r="M339" t="n">
+      <c r="L365" t="n">
+        <v>1.070709779179811</v>
+      </c>
+      <c r="M365" t="n">
         <v>1.082278481012658</v>
       </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="D340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="E340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-2573.566788270001</v>
-      </c>
-      <c r="H340" t="n">
-        <v>3</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>6675</v>
-      </c>
-      <c r="C341" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D341" t="n">
-        <v>6705</v>
-      </c>
-      <c r="E341" t="n">
-        <v>6675</v>
-      </c>
-      <c r="F341" t="n">
-        <v>388.8121</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-2184.754688270001</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>6705</v>
-      </c>
-      <c r="C342" t="n">
-        <v>6720</v>
-      </c>
-      <c r="D342" t="n">
-        <v>6720</v>
-      </c>
-      <c r="E342" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1.3125</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-2183.442188270001</v>
-      </c>
-      <c r="H342" t="n">
-        <v>3</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>6710</v>
-      </c>
-      <c r="C343" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D343" t="n">
-        <v>6710</v>
-      </c>
-      <c r="E343" t="n">
-        <v>6700</v>
-      </c>
-      <c r="F343" t="n">
-        <v>30.3334</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-2213.775588270001</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>6725</v>
-      </c>
-      <c r="C344" t="n">
-        <v>6735</v>
-      </c>
-      <c r="D344" t="n">
-        <v>6735</v>
-      </c>
-      <c r="E344" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F344" t="n">
-        <v>16.5456</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-2197.229988270001</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="C345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="D345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="E345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F345" t="n">
-        <v>0.1153</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-2197.345288270001</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="C346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="D346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="E346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-2197.245288270001</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="C347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="D347" t="n">
-        <v>6750</v>
-      </c>
-      <c r="E347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="F347" t="n">
-        <v>601.1391</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-2197.245288270001</v>
-      </c>
-      <c r="H347" t="n">
-        <v>3</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>6780</v>
-      </c>
-      <c r="C348" t="n">
-        <v>6785</v>
-      </c>
-      <c r="D348" t="n">
-        <v>6785</v>
-      </c>
-      <c r="E348" t="n">
-        <v>6780</v>
-      </c>
-      <c r="F348" t="n">
-        <v>7.2315</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-2190.013788270001</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>6785</v>
-      </c>
-      <c r="C349" t="n">
-        <v>6790</v>
-      </c>
-      <c r="D349" t="n">
-        <v>6790</v>
-      </c>
-      <c r="E349" t="n">
-        <v>6785</v>
-      </c>
-      <c r="F349" t="n">
-        <v>426.58471905</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-1763.429069220002</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>6795</v>
-      </c>
-      <c r="C350" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D350" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E350" t="n">
-        <v>6790</v>
-      </c>
-      <c r="F350" t="n">
-        <v>131.90773456</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-1631.521334660002</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="C351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="F351" t="n">
-        <v>27.1764313</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-1631.521334660002</v>
-      </c>
-      <c r="H351" t="n">
-        <v>3</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>6835</v>
-      </c>
-      <c r="C352" t="n">
-        <v>6845</v>
-      </c>
-      <c r="D352" t="n">
-        <v>6870</v>
-      </c>
-      <c r="E352" t="n">
-        <v>6805</v>
-      </c>
-      <c r="F352" t="n">
-        <v>287.7104</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-1343.810934660002</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C353" t="n">
-        <v>6775</v>
-      </c>
-      <c r="D353" t="n">
-        <v>6800</v>
-      </c>
-      <c r="E353" t="n">
-        <v>6775</v>
-      </c>
-      <c r="F353" t="n">
-        <v>5.2991</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-1349.110034660002</v>
-      </c>
-      <c r="H353" t="n">
-        <v>3</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>6815</v>
-      </c>
-      <c r="C354" t="n">
-        <v>6825</v>
-      </c>
-      <c r="D354" t="n">
-        <v>6825</v>
-      </c>
-      <c r="E354" t="n">
-        <v>6815</v>
-      </c>
-      <c r="F354" t="n">
-        <v>3.2648</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-1345.845234660002</v>
-      </c>
-      <c r="H354" t="n">
-        <v>3</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>6825</v>
-      </c>
-      <c r="C355" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D355" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E355" t="n">
-        <v>6825</v>
-      </c>
-      <c r="F355" t="n">
-        <v>199.878</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-1145.967234660002</v>
-      </c>
-      <c r="H355" t="n">
-        <v>3</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>6855</v>
-      </c>
-      <c r="C356" t="n">
-        <v>6810</v>
-      </c>
-      <c r="D356" t="n">
-        <v>6860</v>
-      </c>
-      <c r="E356" t="n">
-        <v>6810</v>
-      </c>
-      <c r="F356" t="n">
-        <v>283.9853</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-1429.952534660002</v>
-      </c>
-      <c r="H356" t="n">
-        <v>3</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="C357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="D357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="E357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="F357" t="n">
-        <v>0.0982</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-1430.050734660002</v>
-      </c>
-      <c r="H357" t="n">
-        <v>3</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>6830</v>
-      </c>
-      <c r="C358" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D358" t="n">
-        <v>6830</v>
-      </c>
-      <c r="E358" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F358" t="n">
-        <v>74.0734653</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-1355.977269360002</v>
-      </c>
-      <c r="H358" t="n">
-        <v>3</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="C359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="E359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F359" t="n">
-        <v>10.0424</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-1355.977269360002</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>6820</v>
-      </c>
-      <c r="C360" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D360" t="n">
-        <v>6820</v>
-      </c>
-      <c r="E360" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F360" t="n">
-        <v>9.5403</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-1355.977269360002</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>6825</v>
-      </c>
-      <c r="C361" t="n">
-        <v>6790</v>
-      </c>
-      <c r="D361" t="n">
-        <v>6825</v>
-      </c>
-      <c r="E361" t="n">
-        <v>6790</v>
-      </c>
-      <c r="F361" t="n">
-        <v>0.3987</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-1356.375969360002</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>6825</v>
-      </c>
-      <c r="C362" t="n">
-        <v>6825</v>
-      </c>
-      <c r="D362" t="n">
-        <v>6825</v>
-      </c>
-      <c r="E362" t="n">
-        <v>6790</v>
-      </c>
-      <c r="F362" t="n">
-        <v>0.3248</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-1356.051169360002</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>6825</v>
-      </c>
-      <c r="C363" t="n">
-        <v>6865</v>
-      </c>
-      <c r="D363" t="n">
-        <v>6865</v>
-      </c>
-      <c r="E363" t="n">
-        <v>6825</v>
-      </c>
-      <c r="F363" t="n">
-        <v>214.9639</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-1141.087269360002</v>
-      </c>
-      <c r="H363" t="n">
-        <v>3</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>6830</v>
-      </c>
-      <c r="C364" t="n">
-        <v>6825</v>
-      </c>
-      <c r="D364" t="n">
-        <v>6830</v>
-      </c>
-      <c r="E364" t="n">
-        <v>6825</v>
-      </c>
-      <c r="F364" t="n">
-        <v>201.726</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-1342.813269360002</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>6845</v>
-      </c>
-      <c r="C365" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D365" t="n">
-        <v>6845</v>
-      </c>
-      <c r="E365" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F365" t="n">
-        <v>20.4924</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-1363.305669360002</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13151,7 +13337,7 @@
         <v>-1333.073769360002</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13184,7 +13370,7 @@
         <v>-1309.242269360002</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13217,7 +13403,7 @@
         <v>-1336.492369360002</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13250,7 +13436,7 @@
         <v>-1336.732369360002</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13283,7 +13469,7 @@
         <v>-1433.461569360002</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13316,7 +13502,7 @@
         <v>-2045.761669360002</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13349,7 +13535,7 @@
         <v>-2680.396069360002</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13382,7 +13568,7 @@
         <v>-2900.755869360002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13415,7 +13601,7 @@
         <v>-2900.675869360002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13448,7 +13634,7 @@
         <v>-2901.287369360002</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13481,7 +13667,7 @@
         <v>-2833.998169360002</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13514,7 +13700,7 @@
         <v>-2837.274569360002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13547,7 +13733,7 @@
         <v>-2882.274569360002</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13580,7 +13766,7 @@
         <v>-2882.274569360002</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13613,7 +13799,7 @@
         <v>-2898.421969360002</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13646,7 +13832,7 @@
         <v>-2279.380069360002</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13679,7 +13865,7 @@
         <v>-2279.480069360002</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13712,7 +13898,7 @@
         <v>-2244.524269360002</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13745,7 +13931,7 @@
         <v>-2580.970662510002</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13778,7 +13964,7 @@
         <v>-2580.970662510002</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13811,7 +13997,7 @@
         <v>-2425.905152000002</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13844,7 +14030,7 @@
         <v>-2265.597152000002</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13877,7 +14063,7 @@
         <v>-2267.305327010002</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13910,7 +14096,7 @@
         <v>-2267.305327010002</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13976,7 +14162,7 @@
         <v>-3087.713652000002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14042,7 +14228,7 @@
         <v>-3364.860993590002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14273,7 +14459,7 @@
         <v>-2810.659193590001</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14878,6 +15064,6 @@
       <c r="M418" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BTG.xlsx
+++ b/BackTest/2020-01-11 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>327.5656289900001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>331.5656289900001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>538.5819289900001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>529.81172899</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>527.59032899</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>480.59032899</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>480.59032899</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>730.71032899</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>104.2209289899999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>64.01872898999994</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>197.5863289899999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>197.5863289899999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-102.58947101</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-104.26387101</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-87.96387101000005</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-90.42527101000005</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-90.42527101000005</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-978.9797710099999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>118.2405289900001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-612.5673710099998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-677.5767710099998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-439.8351121199998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-499.0292121199998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-409.5635121199997</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-388.3725121199997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-299.4950121199997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-374.3650121199997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-487.0750121199997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-463.0750121199997</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-891.8827121199997</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-891.8827121199997</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-865.2421121199998</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-865.2421121199998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-926.7216121199998</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-972.0647121199999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-896.3734121199999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-862.7182121199999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-866.1700121199999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-716.3658698499999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-716.7396698499998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-789.4681698499999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-784.4681698499999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-784.4681698499999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-786.4681698499999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-786.4681698499999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-827.8014698499999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-827.8014698499999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1286.93066985</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1781.32596985</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1957.82696985</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -7843,10 +7843,14 @@
         <v>-5624.0013221</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>6340</v>
+      </c>
+      <c r="J226" t="n">
+        <v>6340</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7876,11 +7880,19 @@
         <v>-5835.2877221</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>6335</v>
+      </c>
+      <c r="J227" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7915,9 +7927,13 @@
         <v>6320</v>
       </c>
       <c r="J228" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+        <v>6340</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +7968,11 @@
         <v>6340</v>
       </c>
       <c r="J229" t="n">
-        <v>6320</v>
+        <v>6340</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -7993,11 +8009,11 @@
         <v>6325</v>
       </c>
       <c r="J230" t="n">
-        <v>6320</v>
+        <v>6340</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8036,7 +8052,11 @@
       <c r="J231" t="n">
         <v>6340</v>
       </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8075,7 +8095,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8116,7 +8136,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8155,7 +8175,11 @@
       <c r="J234" t="n">
         <v>6340</v>
       </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8218,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8225,11 +8249,9 @@
         <v>-5252.093122099999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>6400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>6340</v>
       </c>
@@ -8266,11 +8288,9 @@
         <v>-5307.682422099999</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>6395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>6340</v>
       </c>
@@ -8348,11 +8368,9 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>6380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>6340</v>
       </c>
@@ -8389,11 +8407,9 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>6380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>6340</v>
       </c>
@@ -8471,11 +8487,9 @@
         <v>-5321.760822099999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>6380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>6340</v>
       </c>
@@ -8512,11 +8526,9 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>6375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>6340</v>
       </c>
@@ -8553,11 +8565,9 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>6390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>6340</v>
       </c>
@@ -8635,11 +8645,9 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>6395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>6340</v>
       </c>
@@ -8676,11 +8684,9 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>6390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>6340</v>
       </c>
@@ -8963,11 +8969,9 @@
         <v>-5163.523422099999</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>6445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>6340</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>-3596.334092550001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
@@ -10457,11 +10461,11 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>1</v>
+        <v>1.033643533123028</v>
       </c>
       <c r="M292" t="inlineStr"/>
     </row>
@@ -10488,17 +10492,11 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10527,17 +10525,11 @@
         <v>-2897.613892550001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10566,17 +10558,11 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10605,17 +10591,11 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10644,17 +10624,11 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10683,17 +10657,11 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10722,17 +10690,11 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10761,17 +10723,11 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10800,17 +10756,11 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10839,17 +10789,11 @@
         <v>-3650.669492550001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10878,17 +10822,11 @@
         <v>-3649.389492550001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +10858,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +10891,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10998,14 +10924,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +10957,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10990,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11115,14 +11023,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +11056,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +11089,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +11122,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +11155,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +11188,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +11221,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +11254,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +11287,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +11320,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11505,14 +11353,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11544,14 +11386,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +11419,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +11452,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +11485,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11700,14 +11518,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11739,14 +11551,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11778,14 +11584,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11817,14 +11617,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11856,14 +11650,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +11683,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11934,14 +11716,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11973,14 +11749,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12012,14 +11782,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12048,17 +11812,11 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12087,17 +11845,11 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12126,17 +11878,11 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12165,17 +11911,11 @@
         <v>-3980.836477650001</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12207,14 +11947,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12243,17 +11977,11 @@
         <v>-2572.855188270001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12285,14 +12013,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12324,14 +12046,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12363,14 +12079,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12402,14 +12112,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12441,14 +12145,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12480,14 +12178,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12519,14 +12211,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12558,14 +12244,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12597,14 +12277,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12636,14 +12310,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12675,14 +12343,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12714,14 +12376,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12753,14 +12409,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12792,14 +12442,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12831,14 +12475,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12870,14 +12508,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12909,14 +12541,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12948,14 +12574,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12987,14 +12607,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13026,14 +12640,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13065,14 +12673,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13104,14 +12706,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13143,14 +12739,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13182,14 +12772,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13221,14 +12805,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13260,14 +12838,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13296,23 +12868,15 @@
         <v>-1363.305669360002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
-        <v>1.070709779179811</v>
-      </c>
-      <c r="M365" t="n">
-        <v>1.082278481012658</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13337,7 +12901,7 @@
         <v>-1333.073769360002</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13370,7 +12934,7 @@
         <v>-1309.242269360002</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13403,7 +12967,7 @@
         <v>-1336.492369360002</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13436,7 +13000,7 @@
         <v>-1336.732369360002</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13469,7 +13033,7 @@
         <v>-1433.461569360002</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13502,7 +13066,7 @@
         <v>-2045.761669360002</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13535,7 +13099,7 @@
         <v>-2680.396069360002</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13568,7 +13132,7 @@
         <v>-2900.755869360002</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13601,7 +13165,7 @@
         <v>-2900.675869360002</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13634,7 +13198,7 @@
         <v>-2901.287369360002</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13667,7 +13231,7 @@
         <v>-2833.998169360002</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13700,7 +13264,7 @@
         <v>-2837.274569360002</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13733,7 +13297,7 @@
         <v>-2882.274569360002</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13766,7 +13330,7 @@
         <v>-2882.274569360002</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13799,7 +13363,7 @@
         <v>-2898.421969360002</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13832,7 +13396,7 @@
         <v>-2279.380069360002</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13865,7 +13429,7 @@
         <v>-2279.480069360002</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13898,7 +13462,7 @@
         <v>-2244.524269360002</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13931,7 +13495,7 @@
         <v>-2580.970662510002</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13964,7 +13528,7 @@
         <v>-2580.970662510002</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13997,7 +13561,7 @@
         <v>-2425.905152000002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14030,7 +13594,7 @@
         <v>-2265.597152000002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14063,7 +13627,7 @@
         <v>-2267.305327010002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14096,7 +13660,7 @@
         <v>-2267.305327010002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14162,7 +13726,7 @@
         <v>-3087.713652000002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14228,7 +13792,7 @@
         <v>-3364.860993590002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15064,6 +14628,6 @@
       <c r="M418" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BTG.xlsx
+++ b/BackTest/2020-01-11 BackTest BTG.xlsx
@@ -2662,7 +2662,7 @@
         <v>-612.7533710099998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-696.5101710099998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-677.5767710099998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-439.8351121199998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-499.0292121199998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-603.1435121199997</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -7843,14 +7843,10 @@
         <v>-5624.0013221</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>6340</v>
-      </c>
-      <c r="J226" t="n">
-        <v>6340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7880,19 +7876,11 @@
         <v>-5835.2877221</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>6335</v>
-      </c>
-      <c r="J227" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7921,19 +7909,11 @@
         <v>-5653.23194797</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>6320</v>
-      </c>
-      <c r="J228" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7962,19 +7942,11 @@
         <v>-5657.23194797</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>6340</v>
-      </c>
-      <c r="J229" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8009,13 +7981,9 @@
         <v>6325</v>
       </c>
       <c r="J230" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6325</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8050,11 +8018,11 @@
         <v>6340</v>
       </c>
       <c r="J231" t="n">
-        <v>6340</v>
+        <v>6325</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8091,11 +8059,11 @@
         <v>6340</v>
       </c>
       <c r="J232" t="n">
-        <v>6340</v>
+        <v>6325</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8134,11 +8102,7 @@
       <c r="J233" t="n">
         <v>6340</v>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8141,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8218,7 +8182,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8327,11 +8291,9 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>6385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>6340</v>
       </c>
@@ -8487,9 +8449,11 @@
         <v>-5321.760822099999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>6380</v>
+      </c>
       <c r="J242" t="n">
         <v>6340</v>
       </c>
@@ -8526,9 +8490,11 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>6375</v>
+      </c>
       <c r="J243" t="n">
         <v>6340</v>
       </c>
@@ -8565,9 +8531,11 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>6390</v>
+      </c>
       <c r="J244" t="n">
         <v>6340</v>
       </c>
@@ -8645,9 +8613,11 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>6395</v>
+      </c>
       <c r="J246" t="n">
         <v>6340</v>
       </c>
@@ -8684,9 +8654,11 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>6390</v>
+      </c>
       <c r="J247" t="n">
         <v>6340</v>
       </c>
@@ -9008,11 +8980,9 @@
         <v>-5114.323422099999</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>6405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
         <v>6340</v>
       </c>
@@ -9088,9 +9058,11 @@
         <v>-5144.9306221</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>6430</v>
+      </c>
       <c r="J257" t="n">
         <v>6340</v>
       </c>
@@ -10453,2232 +10425,2636 @@
         <v>-3596.334092550001</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>6340</v>
       </c>
       <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6600</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6535</v>
+      </c>
+      <c r="F293" t="n">
+        <v>698.8412</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-2897.492892550001</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C294" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-2897.613892550001</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6585</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-2897.492892550001</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C296" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F296" t="n">
+        <v>301.8351</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-2897.492892550001</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>6595</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6595</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6585</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-2897.492892550001</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6570</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F298" t="n">
+        <v>358.5942</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-2897.492892550001</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>6565</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6565</v>
+      </c>
+      <c r="F299" t="n">
+        <v>78.4666</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-2975.959492550001</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D300" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F300" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-2975.959492550001</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C301" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D301" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F301" t="n">
+        <v>230.42</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-2975.959492550001</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6570</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6550</v>
+      </c>
+      <c r="F302" t="n">
+        <v>674.71</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-3650.669492550001</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6550</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6550</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-3649.389492550001</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C304" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E304" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F304" t="n">
+        <v>325.9084</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-3649.389492550001</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C305" t="n">
+        <v>6570</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E305" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F305" t="n">
+        <v>132.7055</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-3782.094992550001</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C306" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D306" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E306" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F306" t="n">
+        <v>42.2124</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-3739.882592550001</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C307" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E307" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F307" t="n">
+        <v>698.2075</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-4438.090092550001</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6580</v>
+      </c>
+      <c r="D308" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E308" t="n">
+        <v>6580</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.3555</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-4437.734592550001</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C309" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D309" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E309" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F309" t="n">
+        <v>108.7844</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-4546.518992550002</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>6555</v>
+      </c>
+      <c r="C310" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6555</v>
+      </c>
+      <c r="F310" t="n">
+        <v>109.3948</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-4546.518992550002</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>6570</v>
+      </c>
+      <c r="C311" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D311" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E311" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F311" t="n">
+        <v>125</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-4546.518992550002</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C312" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D312" t="n">
+        <v>6585</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6580</v>
+      </c>
+      <c r="F312" t="n">
+        <v>114.7311</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-4431.787892550002</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>6570</v>
+      </c>
+      <c r="C313" t="n">
+        <v>6580</v>
+      </c>
+      <c r="D313" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E313" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F313" t="n">
+        <v>148.8884851</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-4580.676377650002</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>6570</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6570</v>
+      </c>
+      <c r="D314" t="n">
+        <v>6570</v>
+      </c>
+      <c r="E314" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F314" t="n">
+        <v>89.7296</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-4670.405977650002</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>6570</v>
+      </c>
+      <c r="C315" t="n">
+        <v>6580</v>
+      </c>
+      <c r="D315" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E315" t="n">
+        <v>6570</v>
+      </c>
+      <c r="F315" t="n">
+        <v>147.89</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-4522.515977650001</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C316" t="n">
+        <v>6580</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E316" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F316" t="n">
+        <v>53.419</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-4522.515977650001</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C317" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D317" t="n">
+        <v>6575</v>
+      </c>
+      <c r="E317" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.1979</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-4522.713877650001</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C318" t="n">
+        <v>6560</v>
+      </c>
+      <c r="D318" t="n">
+        <v>6560</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F318" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-4533.883877650002</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C319" t="n">
+        <v>6560</v>
+      </c>
+      <c r="D319" t="n">
+        <v>6560</v>
+      </c>
+      <c r="E319" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F319" t="n">
+        <v>63.9658</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-4533.883877650002</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>6575</v>
+      </c>
+      <c r="C320" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D320" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E320" t="n">
+        <v>6575</v>
+      </c>
+      <c r="F320" t="n">
+        <v>151.4939</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-4382.389977650001</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C321" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D321" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E321" t="n">
+        <v>6585</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-4382.389977650001</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>6610</v>
+      </c>
+      <c r="C322" t="n">
+        <v>6610</v>
+      </c>
+      <c r="D322" t="n">
+        <v>6610</v>
+      </c>
+      <c r="E322" t="n">
+        <v>6610</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-4382.469977650001</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C323" t="n">
+        <v>6585</v>
+      </c>
+      <c r="D323" t="n">
+        <v>6590</v>
+      </c>
+      <c r="E323" t="n">
+        <v>6585</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.0824</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-4382.552377650001</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>6600</v>
+      </c>
+      <c r="C324" t="n">
+        <v>6600</v>
+      </c>
+      <c r="D324" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E324" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-4381.002377650001</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C325" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D325" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E325" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-4380.922377650001</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C326" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D326" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F326" t="n">
+        <v>7.0638</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-4380.922377650001</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C327" t="n">
+        <v>6625</v>
+      </c>
+      <c r="D327" t="n">
+        <v>6625</v>
+      </c>
+      <c r="E327" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F327" t="n">
+        <v>22</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-4358.922377650001</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C328" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D328" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E328" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-4359.002377650001</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C329" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D329" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E329" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F329" t="n">
+        <v>54.6295</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-4359.002377650001</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C330" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D330" t="n">
+        <v>6620</v>
+      </c>
+      <c r="E330" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F330" t="n">
+        <v>40.9722</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-4359.002377650001</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6625</v>
+      </c>
+      <c r="C331" t="n">
+        <v>6640</v>
+      </c>
+      <c r="D331" t="n">
+        <v>6750</v>
+      </c>
+      <c r="E331" t="n">
+        <v>6615</v>
+      </c>
+      <c r="F331" t="n">
+        <v>385.83</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-3973.172377650001</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>6645</v>
+      </c>
+      <c r="C332" t="n">
+        <v>6635</v>
+      </c>
+      <c r="D332" t="n">
+        <v>6645</v>
+      </c>
+      <c r="E332" t="n">
+        <v>6615</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1.1043</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-3974.276677650001</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>6620</v>
+      </c>
+      <c r="C333" t="n">
+        <v>6645</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6645</v>
+      </c>
+      <c r="E333" t="n">
+        <v>6615</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.3702</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-3973.906477650001</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>6635</v>
+      </c>
+      <c r="C334" t="n">
+        <v>6645</v>
+      </c>
+      <c r="D334" t="n">
+        <v>6645</v>
+      </c>
+      <c r="E334" t="n">
+        <v>6620</v>
+      </c>
+      <c r="F334" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-3973.906477650001</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>6645</v>
+      </c>
+      <c r="C335" t="n">
+        <v>6645</v>
+      </c>
+      <c r="D335" t="n">
+        <v>6645</v>
+      </c>
+      <c r="E335" t="n">
+        <v>6645</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-3973.906477650001</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>6625</v>
+      </c>
+      <c r="C336" t="n">
+        <v>6625</v>
+      </c>
+      <c r="D336" t="n">
+        <v>6625</v>
+      </c>
+      <c r="E336" t="n">
+        <v>6625</v>
+      </c>
+      <c r="F336" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-3980.836477650001</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>6635</v>
+      </c>
+      <c r="C337" t="n">
+        <v>6665</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6975</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6635</v>
+      </c>
+      <c r="F337" t="n">
+        <v>905.0152445799999</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-3075.821233070001</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>6680</v>
+      </c>
+      <c r="C338" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D338" t="n">
+        <v>6975</v>
+      </c>
+      <c r="E338" t="n">
+        <v>6665</v>
+      </c>
+      <c r="F338" t="n">
+        <v>502.9660448</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-2572.855188270001</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>6690</v>
+      </c>
+      <c r="C339" t="n">
+        <v>6690</v>
+      </c>
+      <c r="D339" t="n">
+        <v>6690</v>
+      </c>
+      <c r="E339" t="n">
+        <v>6690</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-2573.155188270001</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="D340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="E340" t="n">
+        <v>6670</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-2573.566788270001</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6675</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6705</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6675</v>
+      </c>
+      <c r="F341" t="n">
+        <v>388.8121</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-2184.754688270001</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6705</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6720</v>
+      </c>
+      <c r="D342" t="n">
+        <v>6720</v>
+      </c>
+      <c r="E342" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-2183.442188270001</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>6710</v>
+      </c>
+      <c r="C343" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6710</v>
+      </c>
+      <c r="E343" t="n">
+        <v>6700</v>
+      </c>
+      <c r="F343" t="n">
+        <v>30.3334</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-2213.775588270001</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6725</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6735</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6735</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F344" t="n">
+        <v>16.5456</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-2197.229988270001</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="C345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="D345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6705</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-2197.345288270001</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="C346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="E346" t="n">
+        <v>6745</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-2197.245288270001</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="C347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="D347" t="n">
+        <v>6750</v>
+      </c>
+      <c r="E347" t="n">
+        <v>6745</v>
+      </c>
+      <c r="F347" t="n">
+        <v>601.1391</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-2197.245288270001</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>6780</v>
+      </c>
+      <c r="C348" t="n">
+        <v>6785</v>
+      </c>
+      <c r="D348" t="n">
+        <v>6785</v>
+      </c>
+      <c r="E348" t="n">
+        <v>6780</v>
+      </c>
+      <c r="F348" t="n">
+        <v>7.2315</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-2190.013788270001</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>6785</v>
+      </c>
+      <c r="C349" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6790</v>
+      </c>
+      <c r="E349" t="n">
+        <v>6785</v>
+      </c>
+      <c r="F349" t="n">
+        <v>426.58471905</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-1763.429069220002</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>6795</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D350" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6790</v>
+      </c>
+      <c r="F350" t="n">
+        <v>131.90773456</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-1631.521334660002</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E351" t="n">
+        <v>6835</v>
+      </c>
+      <c r="F351" t="n">
+        <v>27.1764313</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-1631.521334660002</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>6835</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6845</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6870</v>
+      </c>
+      <c r="E352" t="n">
+        <v>6805</v>
+      </c>
+      <c r="F352" t="n">
+        <v>287.7104</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-1343.810934660002</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>6800</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6775</v>
+      </c>
+      <c r="D353" t="n">
+        <v>6800</v>
+      </c>
+      <c r="E353" t="n">
+        <v>6775</v>
+      </c>
+      <c r="F353" t="n">
+        <v>5.2991</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-1349.110034660002</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>6815</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6825</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6825</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6815</v>
+      </c>
+      <c r="F354" t="n">
+        <v>3.2648</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-1345.845234660002</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E355" t="n">
+        <v>6825</v>
+      </c>
+      <c r="F355" t="n">
+        <v>199.878</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-1145.967234660002</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C356" t="n">
+        <v>6810</v>
+      </c>
+      <c r="D356" t="n">
+        <v>6860</v>
+      </c>
+      <c r="E356" t="n">
+        <v>6810</v>
+      </c>
+      <c r="F356" t="n">
+        <v>283.9853</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-1429.952534660002</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="C357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="E357" t="n">
+        <v>6785</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-1430.050734660002</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E358" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F358" t="n">
+        <v>74.0734653</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1355.977269360002</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="C359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6820</v>
+      </c>
+      <c r="F359" t="n">
+        <v>10.0424</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-1355.977269360002</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1.033643533123028</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>6585</v>
-      </c>
-      <c r="C293" t="n">
-        <v>6600</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6600</v>
-      </c>
-      <c r="E293" t="n">
-        <v>6535</v>
-      </c>
-      <c r="F293" t="n">
-        <v>698.8412</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-2897.492892550001</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C294" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D294" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E294" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-2897.613892550001</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>6585</v>
-      </c>
-      <c r="C295" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D295" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E295" t="n">
-        <v>6585</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-2897.492892550001</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C296" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D296" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E296" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F296" t="n">
-        <v>301.8351</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-2897.492892550001</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>6595</v>
-      </c>
-      <c r="C297" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D297" t="n">
-        <v>6595</v>
-      </c>
-      <c r="E297" t="n">
-        <v>6585</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-2897.492892550001</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>6570</v>
-      </c>
-      <c r="C298" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D298" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E298" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F298" t="n">
-        <v>358.5942</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-2897.492892550001</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>6565</v>
-      </c>
-      <c r="C299" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D299" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E299" t="n">
-        <v>6565</v>
-      </c>
-      <c r="F299" t="n">
-        <v>78.4666</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-2975.959492550001</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>6560</v>
-      </c>
-      <c r="C300" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D300" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E300" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F300" t="n">
-        <v>89.87</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-2975.959492550001</v>
-      </c>
-      <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>6560</v>
-      </c>
-      <c r="C301" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D301" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E301" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F301" t="n">
-        <v>230.42</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-2975.959492550001</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>6560</v>
-      </c>
-      <c r="C302" t="n">
-        <v>6570</v>
-      </c>
-      <c r="D302" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E302" t="n">
-        <v>6550</v>
-      </c>
-      <c r="F302" t="n">
-        <v>674.71</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-3650.669492550001</v>
-      </c>
-      <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>6550</v>
-      </c>
-      <c r="C303" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D303" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E303" t="n">
-        <v>6550</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-3649.389492550001</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C304" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D304" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E304" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F304" t="n">
-        <v>325.9084</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-3649.389492550001</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C305" t="n">
-        <v>6570</v>
-      </c>
-      <c r="D305" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E305" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F305" t="n">
-        <v>132.7055</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-3782.094992550001</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C306" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D306" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E306" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F306" t="n">
-        <v>42.2124</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-3739.882592550001</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C307" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D307" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E307" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F307" t="n">
-        <v>698.2075</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-4438.090092550001</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C308" t="n">
-        <v>6580</v>
-      </c>
-      <c r="D308" t="n">
-        <v>6580</v>
-      </c>
-      <c r="E308" t="n">
-        <v>6580</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.3555</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-4437.734592550001</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C309" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D309" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E309" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F309" t="n">
-        <v>108.7844</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-4546.518992550002</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>6555</v>
-      </c>
-      <c r="C310" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D310" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E310" t="n">
-        <v>6555</v>
-      </c>
-      <c r="F310" t="n">
-        <v>109.3948</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-4546.518992550002</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>6570</v>
-      </c>
-      <c r="C311" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D311" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E311" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F311" t="n">
-        <v>125</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-4546.518992550002</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C312" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D312" t="n">
-        <v>6585</v>
-      </c>
-      <c r="E312" t="n">
-        <v>6580</v>
-      </c>
-      <c r="F312" t="n">
-        <v>114.7311</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-4431.787892550002</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>6570</v>
-      </c>
-      <c r="C313" t="n">
-        <v>6580</v>
-      </c>
-      <c r="D313" t="n">
-        <v>6580</v>
-      </c>
-      <c r="E313" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F313" t="n">
-        <v>148.8884851</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-4580.676377650002</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>6570</v>
-      </c>
-      <c r="C314" t="n">
-        <v>6570</v>
-      </c>
-      <c r="D314" t="n">
-        <v>6570</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F314" t="n">
-        <v>89.7296</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-4670.405977650002</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>6570</v>
-      </c>
-      <c r="C315" t="n">
-        <v>6580</v>
-      </c>
-      <c r="D315" t="n">
-        <v>6580</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6570</v>
-      </c>
-      <c r="F315" t="n">
-        <v>147.89</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-4522.515977650001</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C316" t="n">
-        <v>6580</v>
-      </c>
-      <c r="D316" t="n">
-        <v>6580</v>
-      </c>
-      <c r="E316" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F316" t="n">
-        <v>53.419</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-4522.515977650001</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C317" t="n">
-        <v>6575</v>
-      </c>
-      <c r="D317" t="n">
-        <v>6575</v>
-      </c>
-      <c r="E317" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F317" t="n">
-        <v>0.1979</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-4522.713877650001</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>6560</v>
-      </c>
-      <c r="C318" t="n">
-        <v>6560</v>
-      </c>
-      <c r="D318" t="n">
-        <v>6560</v>
-      </c>
-      <c r="E318" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F318" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-4533.883877650002</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>6560</v>
-      </c>
-      <c r="C319" t="n">
-        <v>6560</v>
-      </c>
-      <c r="D319" t="n">
-        <v>6560</v>
-      </c>
-      <c r="E319" t="n">
-        <v>6560</v>
-      </c>
-      <c r="F319" t="n">
-        <v>63.9658</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-4533.883877650002</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>6575</v>
-      </c>
-      <c r="C320" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D320" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E320" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F320" t="n">
-        <v>151.4939</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-4382.389977650001</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>6585</v>
-      </c>
-      <c r="C321" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D321" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E321" t="n">
-        <v>6585</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-4382.389977650001</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>6610</v>
-      </c>
-      <c r="C322" t="n">
-        <v>6610</v>
-      </c>
-      <c r="D322" t="n">
-        <v>6610</v>
-      </c>
-      <c r="E322" t="n">
-        <v>6610</v>
-      </c>
-      <c r="F322" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-4382.469977650001</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>6590</v>
-      </c>
-      <c r="C323" t="n">
-        <v>6585</v>
-      </c>
-      <c r="D323" t="n">
-        <v>6590</v>
-      </c>
-      <c r="E323" t="n">
-        <v>6585</v>
-      </c>
-      <c r="F323" t="n">
-        <v>0.0824</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-4382.552377650001</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>6600</v>
-      </c>
-      <c r="C324" t="n">
-        <v>6600</v>
-      </c>
-      <c r="D324" t="n">
-        <v>6600</v>
-      </c>
-      <c r="E324" t="n">
-        <v>6600</v>
-      </c>
-      <c r="F324" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-4381.002377650001</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C325" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D325" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E325" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F325" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-4380.922377650001</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C326" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D326" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E326" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F326" t="n">
-        <v>7.0638</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-4380.922377650001</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C327" t="n">
-        <v>6625</v>
-      </c>
-      <c r="D327" t="n">
-        <v>6625</v>
-      </c>
-      <c r="E327" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F327" t="n">
-        <v>22</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-4358.922377650001</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C328" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D328" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E328" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-4359.002377650001</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C329" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D329" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E329" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F329" t="n">
-        <v>54.6295</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-4359.002377650001</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C330" t="n">
-        <v>6620</v>
-      </c>
-      <c r="D330" t="n">
-        <v>6620</v>
-      </c>
-      <c r="E330" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F330" t="n">
-        <v>40.9722</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-4359.002377650001</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>6625</v>
-      </c>
-      <c r="C331" t="n">
-        <v>6640</v>
-      </c>
-      <c r="D331" t="n">
-        <v>6750</v>
-      </c>
-      <c r="E331" t="n">
-        <v>6615</v>
-      </c>
-      <c r="F331" t="n">
-        <v>385.83</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-3973.172377650001</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>6645</v>
-      </c>
-      <c r="C332" t="n">
-        <v>6635</v>
-      </c>
-      <c r="D332" t="n">
-        <v>6645</v>
-      </c>
-      <c r="E332" t="n">
-        <v>6615</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1.1043</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-3974.276677650001</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>6620</v>
-      </c>
-      <c r="C333" t="n">
-        <v>6645</v>
-      </c>
-      <c r="D333" t="n">
-        <v>6645</v>
-      </c>
-      <c r="E333" t="n">
-        <v>6615</v>
-      </c>
-      <c r="F333" t="n">
-        <v>0.3702</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-3973.906477650001</v>
-      </c>
-      <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>6635</v>
-      </c>
-      <c r="C334" t="n">
-        <v>6645</v>
-      </c>
-      <c r="D334" t="n">
-        <v>6645</v>
-      </c>
-      <c r="E334" t="n">
-        <v>6620</v>
-      </c>
-      <c r="F334" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-3973.906477650001</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>6645</v>
-      </c>
-      <c r="C335" t="n">
-        <v>6645</v>
-      </c>
-      <c r="D335" t="n">
-        <v>6645</v>
-      </c>
-      <c r="E335" t="n">
-        <v>6645</v>
-      </c>
-      <c r="F335" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-3973.906477650001</v>
-      </c>
-      <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>6625</v>
-      </c>
-      <c r="C336" t="n">
-        <v>6625</v>
-      </c>
-      <c r="D336" t="n">
-        <v>6625</v>
-      </c>
-      <c r="E336" t="n">
-        <v>6625</v>
-      </c>
-      <c r="F336" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-3980.836477650001</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>6635</v>
-      </c>
-      <c r="C337" t="n">
-        <v>6665</v>
-      </c>
-      <c r="D337" t="n">
-        <v>6975</v>
-      </c>
-      <c r="E337" t="n">
-        <v>6635</v>
-      </c>
-      <c r="F337" t="n">
-        <v>905.0152445799999</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-3075.821233070001</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>6680</v>
-      </c>
-      <c r="C338" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D338" t="n">
-        <v>6975</v>
-      </c>
-      <c r="E338" t="n">
-        <v>6665</v>
-      </c>
-      <c r="F338" t="n">
-        <v>502.9660448</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-2572.855188270001</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>6690</v>
-      </c>
-      <c r="C339" t="n">
-        <v>6690</v>
-      </c>
-      <c r="D339" t="n">
-        <v>6690</v>
-      </c>
-      <c r="E339" t="n">
-        <v>6690</v>
-      </c>
-      <c r="F339" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-2573.155188270001</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="D340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="E340" t="n">
-        <v>6670</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-2573.566788270001</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>6675</v>
-      </c>
-      <c r="C341" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D341" t="n">
-        <v>6705</v>
-      </c>
-      <c r="E341" t="n">
-        <v>6675</v>
-      </c>
-      <c r="F341" t="n">
-        <v>388.8121</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-2184.754688270001</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>6705</v>
-      </c>
-      <c r="C342" t="n">
-        <v>6720</v>
-      </c>
-      <c r="D342" t="n">
-        <v>6720</v>
-      </c>
-      <c r="E342" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1.3125</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-2183.442188270001</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>6710</v>
-      </c>
-      <c r="C343" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D343" t="n">
-        <v>6710</v>
-      </c>
-      <c r="E343" t="n">
-        <v>6700</v>
-      </c>
-      <c r="F343" t="n">
-        <v>30.3334</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-2213.775588270001</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>6725</v>
-      </c>
-      <c r="C344" t="n">
-        <v>6735</v>
-      </c>
-      <c r="D344" t="n">
-        <v>6735</v>
-      </c>
-      <c r="E344" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F344" t="n">
-        <v>16.5456</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-2197.229988270001</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="C345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="D345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="E345" t="n">
-        <v>6705</v>
-      </c>
-      <c r="F345" t="n">
-        <v>0.1153</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-2197.345288270001</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="C346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="D346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="E346" t="n">
-        <v>6745</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-2197.245288270001</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="C347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="D347" t="n">
-        <v>6750</v>
-      </c>
-      <c r="E347" t="n">
-        <v>6745</v>
-      </c>
-      <c r="F347" t="n">
-        <v>601.1391</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-2197.245288270001</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>6780</v>
-      </c>
-      <c r="C348" t="n">
-        <v>6785</v>
-      </c>
-      <c r="D348" t="n">
-        <v>6785</v>
-      </c>
-      <c r="E348" t="n">
-        <v>6780</v>
-      </c>
-      <c r="F348" t="n">
-        <v>7.2315</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-2190.013788270001</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>6785</v>
-      </c>
-      <c r="C349" t="n">
-        <v>6790</v>
-      </c>
-      <c r="D349" t="n">
-        <v>6790</v>
-      </c>
-      <c r="E349" t="n">
-        <v>6785</v>
-      </c>
-      <c r="F349" t="n">
-        <v>426.58471905</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-1763.429069220002</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>6795</v>
-      </c>
-      <c r="C350" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D350" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E350" t="n">
-        <v>6790</v>
-      </c>
-      <c r="F350" t="n">
-        <v>131.90773456</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-1631.521334660002</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="C351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E351" t="n">
-        <v>6835</v>
-      </c>
-      <c r="F351" t="n">
-        <v>27.1764313</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-1631.521334660002</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>6835</v>
-      </c>
-      <c r="C352" t="n">
-        <v>6845</v>
-      </c>
-      <c r="D352" t="n">
-        <v>6870</v>
-      </c>
-      <c r="E352" t="n">
-        <v>6805</v>
-      </c>
-      <c r="F352" t="n">
-        <v>287.7104</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-1343.810934660002</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C353" t="n">
-        <v>6775</v>
-      </c>
-      <c r="D353" t="n">
-        <v>6800</v>
-      </c>
-      <c r="E353" t="n">
-        <v>6775</v>
-      </c>
-      <c r="F353" t="n">
-        <v>5.2991</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-1349.110034660002</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>6815</v>
-      </c>
-      <c r="C354" t="n">
-        <v>6825</v>
-      </c>
-      <c r="D354" t="n">
-        <v>6825</v>
-      </c>
-      <c r="E354" t="n">
-        <v>6815</v>
-      </c>
-      <c r="F354" t="n">
-        <v>3.2648</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-1345.845234660002</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>6825</v>
-      </c>
-      <c r="C355" t="n">
-        <v>6835</v>
-      </c>
-      <c r="D355" t="n">
-        <v>6835</v>
-      </c>
-      <c r="E355" t="n">
-        <v>6825</v>
-      </c>
-      <c r="F355" t="n">
-        <v>199.878</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-1145.967234660002</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>6855</v>
-      </c>
-      <c r="C356" t="n">
-        <v>6810</v>
-      </c>
-      <c r="D356" t="n">
-        <v>6860</v>
-      </c>
-      <c r="E356" t="n">
-        <v>6810</v>
-      </c>
-      <c r="F356" t="n">
-        <v>283.9853</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-1429.952534660002</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="C357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="D357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="E357" t="n">
-        <v>6785</v>
-      </c>
-      <c r="F357" t="n">
-        <v>0.0982</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-1430.050734660002</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>6830</v>
-      </c>
-      <c r="C358" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D358" t="n">
-        <v>6830</v>
-      </c>
-      <c r="E358" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F358" t="n">
-        <v>74.0734653</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-1355.977269360002</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="C359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="D359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="E359" t="n">
-        <v>6820</v>
-      </c>
-      <c r="F359" t="n">
-        <v>10.0424</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-1355.977269360002</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
+        <v>1.070709779179811</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1.082278481012658</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12703,7 +13079,7 @@
         <v>-1355.977269360002</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12736,7 +13112,7 @@
         <v>-1356.375969360002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12769,7 +13145,7 @@
         <v>-1356.051169360002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12802,7 +13178,7 @@
         <v>-1141.087269360002</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12835,7 +13211,7 @@
         <v>-1342.813269360002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12868,7 +13244,7 @@
         <v>-1363.305669360002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12901,7 +13277,7 @@
         <v>-1333.073769360002</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12934,7 +13310,7 @@
         <v>-1309.242269360002</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12967,7 +13343,7 @@
         <v>-1336.492369360002</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13000,7 +13376,7 @@
         <v>-1336.732369360002</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13033,7 +13409,7 @@
         <v>-1433.461569360002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13066,7 +13442,7 @@
         <v>-2045.761669360002</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13099,7 +13475,7 @@
         <v>-2680.396069360002</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13132,7 +13508,7 @@
         <v>-2900.755869360002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
